--- a/documents/SPEC/Sprint1/UI/UI.xlsx
+++ b/documents/SPEC/Sprint1/UI/UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -478,44 +478,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>122991</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>180468</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="InputBorrowingOrLending.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="10020300"/>
-          <a:ext cx="6676191" cy="4057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -534,7 +496,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -543,6 +505,44 @@
         <a:xfrm>
           <a:off x="57150" y="15030450"/>
           <a:ext cx="9952382" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18216</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>18543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="InputBorrowingOrLending.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="9858375"/>
+          <a:ext cx="6676191" cy="4057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -862,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E6:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
